--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.276772</v>
+        <v>2.058859333333333</v>
       </c>
       <c r="H2">
-        <v>12.830316</v>
+        <v>6.176577999999999</v>
       </c>
       <c r="I2">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="J2">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>500.572909790636</v>
+        <v>158.7164846170511</v>
       </c>
       <c r="R2">
-        <v>4505.156188115724</v>
+        <v>1428.44836155346</v>
       </c>
       <c r="S2">
-        <v>0.01991251399018539</v>
+        <v>0.007333612608230775</v>
       </c>
       <c r="T2">
-        <v>0.01991251399018539</v>
+        <v>0.007333612608230775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.276772</v>
+        <v>2.058859333333333</v>
       </c>
       <c r="H3">
-        <v>12.830316</v>
+        <v>6.176577999999999</v>
       </c>
       <c r="I3">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="J3">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>434.4346594261547</v>
+        <v>209.1390079440818</v>
       </c>
       <c r="R3">
-        <v>3909.911934835392</v>
+        <v>1882.251071496736</v>
       </c>
       <c r="S3">
-        <v>0.01728157090495143</v>
+        <v>0.009663422606871563</v>
       </c>
       <c r="T3">
-        <v>0.01728157090495143</v>
+        <v>0.009663422606871561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.276772</v>
+        <v>2.058859333333333</v>
       </c>
       <c r="H4">
-        <v>12.830316</v>
+        <v>6.176577999999999</v>
       </c>
       <c r="I4">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="J4">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>607.4161958706987</v>
+        <v>292.4131808023004</v>
       </c>
       <c r="R4">
-        <v>5466.745762836288</v>
+        <v>2631.718627220704</v>
       </c>
       <c r="S4">
-        <v>0.02416268092334296</v>
+        <v>0.01351116737948614</v>
       </c>
       <c r="T4">
-        <v>0.02416268092334296</v>
+        <v>0.01351116737948614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>109.335934</v>
       </c>
       <c r="I5">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="J5">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>4265.725538408947</v>
+        <v>2809.551678421597</v>
       </c>
       <c r="R5">
-        <v>38391.52984568052</v>
+        <v>25285.96510579438</v>
       </c>
       <c r="S5">
-        <v>0.1696882068535947</v>
+        <v>0.1298174141272219</v>
       </c>
       <c r="T5">
-        <v>0.1696882068535947</v>
+        <v>0.1298174141272219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>109.335934</v>
       </c>
       <c r="I6">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="J6">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>3702.116085864956</v>
@@ -818,10 +818,10 @@
         <v>33319.0447727846</v>
       </c>
       <c r="S6">
-        <v>0.1472681339945243</v>
+        <v>0.1710590129937673</v>
       </c>
       <c r="T6">
-        <v>0.1472681339945243</v>
+        <v>0.1710590129937673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>109.335934</v>
       </c>
       <c r="I7">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="J7">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>5176.210554927079</v>
@@ -880,10 +880,10 @@
         <v>46585.8949943437</v>
       </c>
       <c r="S7">
-        <v>0.2059067981410344</v>
+        <v>0.2391706386394619</v>
       </c>
       <c r="T7">
-        <v>0.2059067981410344</v>
+        <v>0.2391706386394619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>86.943794</v>
       </c>
       <c r="I8">
-        <v>0.4157800951923667</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="J8">
-        <v>0.4157800951923668</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>3392.09945809734</v>
+        <v>2234.151878750509</v>
       </c>
       <c r="R8">
-        <v>30528.89512287607</v>
+        <v>20107.36690875458</v>
       </c>
       <c r="S8">
-        <v>0.1349358436990014</v>
+        <v>0.1032306406372298</v>
       </c>
       <c r="T8">
-        <v>0.1349358436990014</v>
+        <v>0.1032306406372298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>86.943794</v>
       </c>
       <c r="I9">
-        <v>0.4157800951923667</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="J9">
-        <v>0.4157800951923668</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>2943.917946807214</v>
@@ -1004,10 +1004,10 @@
         <v>26495.26152126493</v>
       </c>
       <c r="S9">
-        <v>0.1171074306164003</v>
+        <v>0.1360259069774209</v>
       </c>
       <c r="T9">
-        <v>0.1171074306164003</v>
+        <v>0.1360259069774208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>86.943794</v>
       </c>
       <c r="I10">
-        <v>0.4157800951923667</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="J10">
-        <v>0.4157800951923668</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>4116.115971426243</v>
@@ -1066,10 +1066,10 @@
         <v>37045.04374283619</v>
       </c>
       <c r="S10">
-        <v>0.1637368208769651</v>
+        <v>0.1901881840303099</v>
       </c>
       <c r="T10">
-        <v>0.1637368208769651</v>
+        <v>0.1901881840303099</v>
       </c>
     </row>
   </sheetData>
